--- a/resources/requestLoanTestData.xlsx
+++ b/resources/requestLoanTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\szujodanielrepo\Parabank-Automated-Test-Cases\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\parabankdocker\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3376534C-5584-4924-AF04-8870C2823A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D46018D-2622-49AD-A3FA-D098A7AF8D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2520" windowWidth="13515" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="2865" windowWidth="13515" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="requestLoanTestData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>DownPaymentValues</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>CombinedValues</t>
-  </si>
-  <si>
-    <t>1001</t>
   </si>
 </sst>
 </file>
@@ -744,7 +741,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1105,7 +1102,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,8 +1159,8 @@
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
-        <v>3</v>
+      <c r="C5" s="12">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
